--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,7 +19,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,9 +163,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+  <si>
+    <t>_ID</t>
   </si>
   <si>
     <t>技能ID</t>
@@ -214,7 +213,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>_id</t>
+    <t>Id</t>
   </si>
   <si>
     <t>SkillId</t>
@@ -335,75 +334,6 @@
   </si>
   <si>
     <t>物理远程</t>
-  </si>
-  <si>
-    <t>基础剑术</t>
-  </si>
-  <si>
-    <t>主动</t>
-  </si>
-  <si>
-    <t>对单个目标造成物理伤害，同时几率附带一个减防debuff持续2秒</t>
-  </si>
-  <si>
-    <t>对单个目标造成物理伤害，同时对周围单个敌人造成50%伤害</t>
-  </si>
-  <si>
-    <t>对周围最多5个目标造成物理伤害，且附加一个持续3秒的流血DOT</t>
-  </si>
-  <si>
-    <t>被动</t>
-  </si>
-  <si>
-    <t>每30s，增加生命上限的盾</t>
-  </si>
-  <si>
-    <t>概率造成多倍攻击</t>
-  </si>
-  <si>
-    <t>造成伤害，并晕眩</t>
-  </si>
-  <si>
-    <t>对单个目标造成大量的物理伤害</t>
-  </si>
-  <si>
-    <t>火球术</t>
-  </si>
-  <si>
-    <t>对单个目标造成魔法伤害</t>
-  </si>
-  <si>
-    <t>对单个目标造成魔法伤害，几率附带昏迷</t>
-  </si>
-  <si>
-    <t>对周围最多8个目标直接造成魔法伤害，且5秒内造成持续的魔法伤害</t>
-  </si>
-  <si>
-    <t>概率连续施法</t>
-  </si>
-  <si>
-    <t>造成伤害，并限制并冰冻单位</t>
-  </si>
-  <si>
-    <t>对最多N个目标造成大量魔法伤害，同时降低目标攻速，持续3秒</t>
-  </si>
-  <si>
-    <t>对单个目标造成道术伤害</t>
-  </si>
-  <si>
-    <t>召唤骷髅为自己作战，后续可召唤多个骷髅</t>
-  </si>
-  <si>
-    <t>对周围最多5个目标下毒，立即造成伤害，同时持续掉血</t>
-  </si>
-  <si>
-    <t>概率提高召唤物攻击</t>
-  </si>
-  <si>
-    <t>造成伤害，并增加然后DOT</t>
-  </si>
-  <si>
-    <t>使用后30秒内提高自身防御与攻击力，影响召唤物</t>
   </si>
 </sst>
 </file>
@@ -593,18 +523,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -911,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,16 +847,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,52 +868,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -998,16 +922,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,47 +946,42 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1381,908 +1303,1035 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U27"/>
+  <dimension ref="C3:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="11" width="7.50833333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="1" customWidth="1"/>
-    <col min="15" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="19.25" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="13" width="7.50833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="2" customWidth="1"/>
+    <col min="17" max="22" width="9" style="2"/>
+    <col min="23" max="23" width="19.25" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="3" spans="3:23">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="3:17">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="3:17">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="3">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:16">
+      <c r="C6" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D6" s="1">
         <v>1001</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>110</v>
       </c>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="2:16">
-      <c r="B5" s="3">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:16">
+      <c r="C7" s="1">
         <v>1002</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P7" s="1">
         <v>150</v>
       </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="2:16">
-      <c r="B6" s="3">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:16">
+      <c r="C8" s="1">
         <v>1003</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P8" s="1">
         <v>120</v>
       </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="2:16">
-      <c r="B7" s="3">
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:16">
+      <c r="C9" s="1">
         <v>1004</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H9" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="2:16">
-      <c r="B8" s="3">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:16">
+      <c r="C10" s="1">
         <v>1005</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="2:16">
-      <c r="B9" s="3">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:16">
+      <c r="C11" s="1">
         <v>1006</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H11" s="1">
         <v>15</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
         <v>200</v>
       </c>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="2:16">
-      <c r="B10" s="3">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:16">
+      <c r="C12" s="1">
         <v>1007</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H12" s="1">
         <v>15</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
         <v>300</v>
       </c>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="3">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:16">
+      <c r="C13" s="1">
         <v>2001</v>
       </c>
-      <c r="B11" s="3">
+      <c r="D13" s="1">
         <v>2001</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="3">
+      <c r="N13" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
         <v>110</v>
       </c>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="2:16">
-      <c r="B12" s="3">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:16">
+      <c r="C14" s="1">
         <v>2002</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D14" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N14" s="1">
         <v>2</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
         <v>150</v>
       </c>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="2:16">
-      <c r="B13" s="3">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:16">
+      <c r="C15" s="1">
         <v>2003</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D15" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="3">
+      <c r="N15" s="1">
         <v>2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O15" s="1">
         <v>5</v>
       </c>
-      <c r="N13" s="3">
+      <c r="P15" s="1">
         <v>120</v>
       </c>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="2:16">
-      <c r="B14" s="3">
+    </row>
+    <row r="16" s="1" customFormat="1" spans="3:16">
+      <c r="C16" s="1">
         <v>2004</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D16" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H16" s="1">
         <v>30</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="2:16">
-      <c r="B15" s="3">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="3:16">
+      <c r="C17" s="1">
         <v>2005</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D17" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="2:16">
-      <c r="B16" s="3">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="3:16">
+      <c r="C18" s="1">
         <v>2006</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D18" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H18" s="1">
         <v>15</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="3">
+      <c r="N18" s="1">
         <v>2</v>
       </c>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="2:16">
-      <c r="B17" s="3">
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="3:16">
+      <c r="C19" s="1">
         <v>2007</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D19" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H19" s="1">
         <v>10</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
         <v>3</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N19" s="1">
         <v>2</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O19" s="1">
         <v>5</v>
       </c>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:16">
-      <c r="A18" s="3">
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="3:16">
+      <c r="C20" s="1">
         <v>3001</v>
       </c>
-      <c r="B18" s="3">
+      <c r="D20" s="1">
         <v>3001</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
         <v>110</v>
       </c>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="2:16">
-      <c r="B19" s="3">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="3:16">
+      <c r="C21" s="1">
         <v>3002</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D21" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H21" s="1">
         <v>15</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
         <v>150</v>
       </c>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="2:16">
-      <c r="B20" s="3">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="3:16">
+      <c r="C22" s="1">
         <v>3003</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D22" s="1">
+        <v>3003</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H22" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N22" s="1">
         <v>2</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P22" s="1">
         <v>120</v>
       </c>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="2:16">
-      <c r="B21" s="3">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="3:16">
+      <c r="C23" s="1">
         <v>3004</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D23" s="1">
+        <v>3004</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H23" s="1">
         <v>30</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I23" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="2:16">
-      <c r="B22" s="3">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:16">
+      <c r="C24" s="1">
         <v>3005</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D24" s="1">
+        <v>3005</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
         <v>3</v>
       </c>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="2:16">
-      <c r="B23" s="3">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="3:16">
+      <c r="C25" s="1">
         <v>3006</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D25" s="1">
+        <v>3006</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H25" s="1">
         <v>15</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="3">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
         <v>200</v>
       </c>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="2:16">
-      <c r="B24" s="3">
+    </row>
+    <row r="26" s="1" customFormat="1" spans="3:16">
+      <c r="C26" s="1">
         <v>3007</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D26" s="1">
+        <v>3007</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H26" s="1">
         <v>30</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="16:16">
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:9">
-      <c r="A26" s="4">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="3:16">
+      <c r="C27" s="1">
         <v>9001</v>
       </c>
-      <c r="B26" s="4">
+      <c r="D27" s="1">
         <v>9001</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:9">
-      <c r="A27" s="4">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="3:16">
+      <c r="C28" s="1">
         <v>9002</v>
       </c>
-      <c r="B27" s="4">
+      <c r="D28" s="1">
         <v>9002</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1</v>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F1:F3 A1:E3" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="H3:H5 C3:G5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2290,277 +2339,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="F19:H44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="19" spans="6:8">
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8">
-      <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8">
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8">
-      <c r="F25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="6:8">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="6:8">
-      <c r="F28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8">
-      <c r="F29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8">
-      <c r="F30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="F31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8">
-      <c r="F32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8">
-      <c r="F39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8">
-      <c r="F41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8">
-      <c r="F42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8">
-      <c r="F43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>